--- a/qa/Test Cases.xlsx
+++ b/qa/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waychin\Documents\QA\test-automation-framework\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA47C75-17B8-413C-BB47-108BA7F0C7AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46FFF5-C700-4716-8F85-758A38E64F15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36BEC0A9-B028-4467-AE2D-B2A4A04E12A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>P/F</t>
   </si>
@@ -87,36 +87,21 @@
     <t xml:space="preserve">1) Desbloquar el telefono.                                                                   </t>
   </si>
   <si>
-    <t>Encender el Wifi</t>
-  </si>
-  <si>
-    <t>El Wifi queda encendido</t>
-  </si>
-  <si>
     <t>TC-002</t>
   </si>
   <si>
-    <t>Apagar el Wifi</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5) Ver si el toggle marca encendido.</t>
   </si>
   <si>
     <t xml:space="preserve"> 6) Si esta encendido, mover el switch a apagado.</t>
   </si>
   <si>
-    <t>El Wifi queda apagado</t>
-  </si>
-  <si>
     <t>TC-003</t>
   </si>
   <si>
     <t>TC-004</t>
   </si>
   <si>
-    <t>Marcar a un numero</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 6) Boton de Llamar</t>
   </si>
   <si>
@@ -126,18 +111,9 @@
     <t>4) Seleccionar el numpad si no esta</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5) Ingresar el numero directamente al textBox</t>
-  </si>
-  <si>
     <t>Se llama al numero</t>
   </si>
   <si>
-    <t>Marcar un numero por UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5) Ingresar el numero uno por uno con el numpad.</t>
-  </si>
-  <si>
     <t>PREREQUISITOS</t>
   </si>
   <si>
@@ -148,6 +124,111 @@
   </si>
   <si>
     <t>FECHA</t>
+  </si>
+  <si>
+    <t>Wifi apagado</t>
+  </si>
+  <si>
+    <t>Wifi encendido</t>
+  </si>
+  <si>
+    <t>Se enciende el Wifi</t>
+  </si>
+  <si>
+    <t>El Wifi se mantiene encendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6) No hacer nada</t>
+  </si>
+  <si>
+    <t>Se apaga el Wifi</t>
+  </si>
+  <si>
+    <t>El Wifi se mantiene apagado</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5) Ingresar el numero recibido por parametro</t>
+  </si>
+  <si>
+    <t>Marcar un numero nacional valido por UI</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Marcar un string cualquiera</t>
+  </si>
+  <si>
+    <t>Marcar un numero nacional valido</t>
+  </si>
+  <si>
+    <t>4kj234hj1</t>
+  </si>
+  <si>
+    <t>Error: numero invalido</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>Marcar un numero internacional valido</t>
+  </si>
+  <si>
+    <t>+59122794948</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5) Ingresar el numero recibido por UI</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>Marcar un string cualquiera por UI</t>
+  </si>
+  <si>
+    <t>Marcar un numero internacional valido por UI</t>
+  </si>
+  <si>
+    <t>+59177236019</t>
+  </si>
+  <si>
+    <t>Marcar un numero de emergencia valido</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Marcar un numero de emergencia valido por UI</t>
+  </si>
+  <si>
+    <t>asd6c9asd</t>
+  </si>
+  <si>
+    <t>Encender el Wifi cuando esta apagado</t>
+  </si>
+  <si>
+    <t>Encender el Wifi cuando esta encendido</t>
+  </si>
+  <si>
+    <t>Apagar el Wifi cuando esta encendido</t>
+  </si>
+  <si>
+    <t>Apagar el Wifi cuando esta apagado</t>
   </si>
 </sst>
 </file>
@@ -155,7 +236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -315,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -358,13 +439,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,8 +452,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -697,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36194FD8-B4FB-4B43-B921-E5610C264AD6}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,10 +806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="23">
         <v>1</v>
       </c>
@@ -730,32 +818,32 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -769,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -800,7 +888,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
     </row>
@@ -814,43 +902,45 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
+      <c r="B8" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H8" s="20"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,7 +953,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,7 +966,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,7 +977,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="10"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -900,7 +990,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -913,28 +1003,28 @@
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
+      <c r="F15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="8"/>
@@ -942,14 +1032,16 @@
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -957,25 +1049,25 @@
       <c r="B17" s="9"/>
       <c r="C17" s="7"/>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -986,7 +1078,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="10"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -999,7 +1091,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1012,71 +1104,71 @@
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4493019556</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="20"/>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="20"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1087,7 +1179,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="10"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1100,7 +1192,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1113,58 +1205,58 @@
       <c r="E28" s="7"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="15">
-        <v>52459122794948</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D30" s="12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="7"/>
       <c r="D31" s="12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="20"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1172,12 +1264,12 @@
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
       <c r="D32" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1188,8 +1280,1047 @@
       <c r="E33" s="5"/>
       <c r="F33" s="10"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="15">
+        <v>4493019556</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="15">
+        <v>4493019556</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="18"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="18"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
